--- a/questions/rec3.xlsx
+++ b/questions/rec3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,7 +435,7 @@
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="82" customWidth="1" min="3" max="3"/>
+    <col width="80" customWidth="1" min="3" max="3"/>
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
@@ -490,13 +490,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2905</v>
+        <v>155</v>
       </c>
       <c r="E2" t="n">
-        <v>104074</v>
+        <v>4130</v>
       </c>
       <c r="F2" t="n">
-        <v>8582</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3">
@@ -507,22 +507,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>June</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Acropolis Regular Admission Ticket - Spanish</t>
+          <t>Knossos: Skip-The-Line Ticket with Audio Tour</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1966</v>
+        <v>99</v>
       </c>
       <c r="E3" t="n">
-        <v>85297</v>
+        <v>3710</v>
       </c>
       <c r="F3" t="n">
-        <v>6440</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4">
@@ -533,22 +533,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>August</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Knossos: Skip-The-Line Ticket with Audio Tour</t>
+          <t>Acropolis Regular Admission Ticket - Spanish</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2277</v>
+        <v>103</v>
       </c>
       <c r="E4" t="n">
-        <v>75133</v>
+        <v>3358</v>
       </c>
       <c r="F4" t="n">
-        <v>5773</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5">
@@ -564,17 +564,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Knossos: Skip-The-Line Ticket with Audio Tour - German</t>
+          <t>Santorini: Akrotiri Skip-The-Line e-ticket with Audio Tour</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1656</v>
+        <v>96</v>
       </c>
       <c r="E5" t="n">
-        <v>40999</v>
+        <v>3344</v>
       </c>
       <c r="F5" t="n">
-        <v>3611</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6">
@@ -585,22 +585,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>June</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Acropolis Regular Admission Ticket - Italian</t>
+          <t>National Archaeological Museum: Skip-The-Line e-ticket with Audio Tour</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1335</v>
+        <v>75</v>
       </c>
       <c r="E6" t="n">
-        <v>30786</v>
+        <v>2481</v>
       </c>
       <c r="F6" t="n">
-        <v>3198</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7">
@@ -611,22 +611,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>March</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Acropolis Regular Admission Ticket - French</t>
+          <t xml:space="preserve"> Acropolis Regular Admission Ticket</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1015</v>
+        <v>176</v>
       </c>
       <c r="E7" t="n">
-        <v>29080</v>
+        <v>2132</v>
       </c>
       <c r="F7" t="n">
-        <v>2690</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8">
@@ -637,22 +637,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>June</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Acropolis Regular Admission Ticket</t>
+          <t>Knossos: Skip-The-Line Ticket with Audio Tour - German</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1558</v>
+        <v>72</v>
       </c>
       <c r="E8" t="n">
-        <v>28924</v>
+        <v>2105</v>
       </c>
       <c r="F8" t="n">
-        <v>4588</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9">
@@ -663,22 +663,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>September</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>National Archaeological Museum: Skip-The-Line e-ticket with Audio Tour</t>
+          <t>National Archaeological Museum Entry Ticket</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>825</v>
+        <v>90</v>
       </c>
       <c r="E9" t="n">
-        <v>28641</v>
+        <v>1635</v>
       </c>
       <c r="F9" t="n">
-        <v>2178</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10">
@@ -689,22 +689,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>April</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Knossos: Skip-The-Line Ticket with Audio Tour - French</t>
+          <t>Delphi: Skip-the-Line Ticket &amp; Audio Guide</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>736</v>
+        <v>28</v>
       </c>
       <c r="E10" t="n">
-        <v>26719</v>
+        <v>1606</v>
       </c>
       <c r="F10" t="n">
-        <v>1955</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
@@ -715,22 +715,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>August</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Acropolis Regular Admission Ticket - German</t>
+          <t>Acropolis Regular Admission Ticket - Italian</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>631</v>
+        <v>75</v>
       </c>
       <c r="E11" t="n">
-        <v>23442</v>
+        <v>1347</v>
       </c>
       <c r="F11" t="n">
-        <v>1966</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12">
@@ -741,22 +741,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>June</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Palace of Knossos Entry Ticket - German</t>
+          <t>Knossos: Skip-The-Line Ticket with Audio Tour - French</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>540</v>
+        <v>32</v>
       </c>
       <c r="E12" t="n">
-        <v>13860</v>
+        <v>1305</v>
       </c>
       <c r="F12" t="n">
-        <v>1380</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -767,22 +767,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>April</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Santorini: Akrotiri Skip-The-Line e-ticket with Audio Tour</t>
+          <t>Acropolis Museum Admission Ticket</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>384</v>
+        <v>32</v>
       </c>
       <c r="E13" t="n">
-        <v>13376</v>
+        <v>1200.5</v>
       </c>
       <c r="F13" t="n">
-        <v>992</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
@@ -793,22 +793,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>August</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>National Archaeological Museum: Skip-The-Line e-ticket with Audio Tour - Italian</t>
+          <t>Acropolis Regular Admission Ticket - French</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>279</v>
+        <v>55</v>
       </c>
       <c r="E14" t="n">
-        <v>11717</v>
+        <v>1162</v>
       </c>
       <c r="F14" t="n">
-        <v>818</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
@@ -819,28 +819,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>April</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>National Archaeological Museum Entry Ticket</t>
+          <t>National Archaeological Museum: Skip-The-Line e-ticket with Audio Tour - Italian</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>540</v>
+        <v>29</v>
       </c>
       <c r="E15" t="n">
-        <v>9810</v>
+        <v>1023</v>
       </c>
       <c r="F15" t="n">
-        <v>1194</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -850,17 +850,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Delphi: Skip-the-Line Ticket &amp; Audio Guide</t>
+          <t>Castel Sant’ Angelo: Skip-the-Line Ticket &amp; Audio Tour - German</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="E16" t="n">
-        <v>8030</v>
+        <v>1975</v>
       </c>
       <c r="F16" t="n">
-        <v>505</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17">
@@ -876,17 +876,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Castel Sant’ Angelo: Skip-the-Line Ticket &amp; Audio Tour - German</t>
+          <t>Castel Sant’ Angelo: Skip-the-Line Ticket &amp; Audio Tour</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>320</v>
+        <v>28</v>
       </c>
       <c r="E17" t="n">
-        <v>16800</v>
+        <v>1542</v>
       </c>
       <c r="F17" t="n">
-        <v>920</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
@@ -897,100 +897,100 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>January</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Castel Sant’ Angelo: Skip-the-Line Ticket &amp; Audio Tour</t>
+          <t>Castel Sant’ Angelo: Skip-the-Line Ticket &amp; Audio Tour - Italian</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>224</v>
+        <v>37</v>
       </c>
       <c r="E18" t="n">
-        <v>13036</v>
+        <v>1381</v>
       </c>
       <c r="F18" t="n">
-        <v>688</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Castel Sant’ Angelo: Skip-the-Line Ticket &amp; Audio Tour - Italian</t>
+          <t>Quinta da Regaleira: Skip-The-Line e-ticket with Audio Tour</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>296</v>
+        <v>504</v>
       </c>
       <c r="E19" t="n">
-        <v>11973</v>
+        <v>14529</v>
       </c>
       <c r="F19" t="n">
-        <v>728</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>August</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Castel Sant’ Angelo: Skip-the-Line Ticket &amp; Audio Tour - Spanish</t>
+          <t>Quinta da Regaleira Entry Ticket</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="E20" t="n">
-        <v>2735</v>
+        <v>7695</v>
       </c>
       <c r="F20" t="n">
-        <v>208</v>
+        <v>626</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>August</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Castel Sant’ Angelo: Skip-the-Line Ticket &amp; Audio Tour - French</t>
+          <t>Quinta da Regaleira Entry Ticket - French</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="E21" t="n">
-        <v>1515</v>
+        <v>5377</v>
       </c>
       <c r="F21" t="n">
-        <v>128</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22">
@@ -1006,17 +1006,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Quinta da Regaleira: Skip-The-Line e-ticket with Audio Tour</t>
+          <t>Quinta da Regaleira: Skip-The-Line e-ticket with Audio Tour - French</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4167</v>
+        <v>189</v>
       </c>
       <c r="E22" t="n">
-        <v>154005</v>
+        <v>4987</v>
       </c>
       <c r="F22" t="n">
-        <v>11106</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>August</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Quinta da Regaleira: Skip-The-Line e-ticket with Audio Tour - French</t>
+          <t>Quinta da Regaleira Entry Ticket - Spanish</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1559</v>
+        <v>108</v>
       </c>
       <c r="E23" t="n">
-        <v>52825</v>
+        <v>3458</v>
       </c>
       <c r="F23" t="n">
-        <v>3946</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24">
@@ -1062,13 +1062,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>942</v>
+        <v>112</v>
       </c>
       <c r="E24" t="n">
-        <v>37129.5</v>
+        <v>3168.5</v>
       </c>
       <c r="F24" t="n">
-        <v>2667</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1088,13 +1088,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>804</v>
+        <v>81</v>
       </c>
       <c r="E25" t="n">
-        <v>32133</v>
+        <v>2849</v>
       </c>
       <c r="F25" t="n">
-        <v>2016</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26">
@@ -1105,22 +1105,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Quinta da Regaleira Entry Ticket</t>
+          <t>St. George Castle: Skip-The-Line e-ticket with Audio Tour - French</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>884</v>
+        <v>51</v>
       </c>
       <c r="E26" t="n">
-        <v>30780</v>
+        <v>2099</v>
       </c>
       <c r="F26" t="n">
-        <v>2504</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27">
@@ -1131,22 +1131,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Quinta da Regaleira Entry Ticket - French</t>
+          <t>Quinta da Regaleira: Skip-The-Line e-ticket with Audio Tour - German</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>588</v>
+        <v>53</v>
       </c>
       <c r="E27" t="n">
-        <v>21508</v>
+        <v>1601</v>
       </c>
       <c r="F27" t="n">
-        <v>1720</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28">
@@ -1157,22 +1157,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>August</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>St. George Castle: Skip-The-Line e-ticket with Audio Tour - French</t>
+          <t>Jerónimos Monastery: E-ticket with Audio Tour on Your Phone</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>510</v>
+        <v>52</v>
       </c>
       <c r="E28" t="n">
-        <v>20964.5</v>
+        <v>1520.2</v>
       </c>
       <c r="F28" t="n">
-        <v>1250</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29">
@@ -1183,22 +1183,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>November</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Quinta da Regaleira: Skip-The-Line e-ticket with Audio Tour - German</t>
+          <t>St. George Castle Entry Ticket</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>435</v>
+        <v>64</v>
       </c>
       <c r="E29" t="n">
-        <v>16169</v>
+        <v>1425</v>
       </c>
       <c r="F29" t="n">
-        <v>1158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30">
@@ -1209,22 +1209,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>September</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Quinta da Regaleira Entry Ticket - Spanish</t>
+          <t>Quinta da Regaleira Entry Ticket - German</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>432</v>
+        <v>51</v>
       </c>
       <c r="E30" t="n">
-        <v>13832</v>
+        <v>1254</v>
       </c>
       <c r="F30" t="n">
-        <v>1160</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -1240,101 +1240,101 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Belem Tower: Skip-The-Line e-ticket with Audio Tour</t>
+          <t>St. George Castle: Skip-The-Line e-ticket with Audio Tour - German</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>420</v>
+        <v>30</v>
       </c>
       <c r="E31" t="n">
-        <v>10410</v>
+        <v>1018.5</v>
       </c>
       <c r="F31" t="n">
-        <v>1110</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>October</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>St. George Castle: Skip-The-Line e-ticket with Audio Tour - German</t>
+          <t>Cordoba Mosque-Cathedral: Skip-The-Line e-ticket with Audio Tour</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E32" t="n">
-        <v>10170</v>
+        <v>5960</v>
       </c>
       <c r="F32" t="n">
-        <v>670</v>
+        <v>482</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>October</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Moorish Castle: Skip-The-Line e-ticket with Audio Tour</t>
+          <t>Cordoba Mosque-Cathedral: Skip-The-Line e-ticket with Audio Tour - French</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>568</v>
+        <v>140</v>
       </c>
       <c r="E33" t="n">
-        <v>10004</v>
+        <v>4897</v>
       </c>
       <c r="F33" t="n">
-        <v>1392</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>November</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Belem Tower: Skip-The-Line e-ticket with Audio Tour-French</t>
+          <t>Cordoba Mosque-Cathedral Entry Ticket</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>390</v>
+        <v>175</v>
       </c>
       <c r="E34" t="n">
-        <v>9495</v>
+        <v>4739</v>
       </c>
       <c r="F34" t="n">
-        <v>1020</v>
+        <v>392</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1344,23 +1344,23 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>St. George Castle: Skip-The-Line e-ticket with Audio Tour  - Portuguese</t>
+          <t>Cordoba Mosque-Cathedral: Skip-The-Line e-ticket with Audio Tour - German</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="E35" t="n">
-        <v>8103</v>
+        <v>1590</v>
       </c>
       <c r="F35" t="n">
-        <v>564</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1370,303 +1370,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>St. George Castle: Skip-The-Line e-ticket with Audio Tour - Italian</t>
+          <t>Ephesus: Skip-the-line Ticket and Audio Tour</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>228</v>
+        <v>27</v>
       </c>
       <c r="E36" t="n">
-        <v>7353.5</v>
+        <v>1224.5</v>
       </c>
       <c r="F36" t="n">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Cordoba Mosque-Cathedral: Skip-The-Line e-ticket with Audio Tour</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E37" t="n">
-        <v>33800</v>
-      </c>
-      <c r="F37" t="n">
-        <v>2410</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Cordoba Mosque-Cathedral: Skip-The-Line e-ticket with Audio Tour - French</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>699</v>
-      </c>
-      <c r="E38" t="n">
-        <v>27261</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Cordoba Mosque-Cathedral: Skip-The-Line e-ticket with Audio Tour - German</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>210</v>
-      </c>
-      <c r="E39" t="n">
-        <v>8790</v>
-      </c>
-      <c r="F39" t="n">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Cordoba Mosque-Cathedral: Skip-The-Line e-ticket with Audio Tour - Spanish</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>170</v>
-      </c>
-      <c r="E40" t="n">
-        <v>5470</v>
-      </c>
-      <c r="F40" t="n">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Cordoba Mosque-Cathedral Entry Ticket</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>175</v>
-      </c>
-      <c r="E41" t="n">
-        <v>4739</v>
-      </c>
-      <c r="F41" t="n">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Alcazaba and Gardens of Alhambra: E-ticket with Audio Tour on Your Phone</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>56</v>
-      </c>
-      <c r="E42" t="n">
-        <v>2304</v>
-      </c>
-      <c r="F42" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>The Royal Alcázares of Seville: Entrance e-ticket with Audio Tour - French</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>55</v>
-      </c>
-      <c r="E43" t="n">
-        <v>1680</v>
-      </c>
-      <c r="F43" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Alcazaba and Gardens of Alhambra: E-ticket with Audio Tour on Your Phone - German</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>16</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1248</v>
-      </c>
-      <c r="F44" t="n">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>The Royal Alcázares of Seville: Entrance e-ticket with Audio Tour</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>25</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1120</v>
-      </c>
-      <c r="F45" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Alcazaba and Gardens of Alhambra: E-ticket with Audio Tour on Your Phone - Spanish</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>36</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1056</v>
-      </c>
-      <c r="F46" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Ephesus: Skip-the-line Ticket and Audio Tour</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>54</v>
-      </c>
-      <c r="E47" t="n">
-        <v>2449</v>
-      </c>
-      <c r="F47" t="n">
-        <v>138</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
